--- a/biology/Botanique/Autento/Autento.xlsx
+++ b/biology/Botanique/Autento/Autento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Autento est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Épicarpe : rouge.
-Le fruit est rouge orange sur fond jaune[1].
+Le fruit est rouge orange sur fond jaune.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Création : Delbard à Malicorne, France.</t>
         </is>
@@ -573,10 +589,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la variété est "Delcoros"[1].
-La pomme Autento résulte du croisement: Delbard Jubilé delgollune × Cox's Orange Pippin[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la variété est "Delcoros".
+La pomme Autento résulte du croisement: Delbard Jubilé delgollune × Cox's Orange Pippin.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pollinisateurs: Elstar, ...</t>
         </is>
@@ -635,11 +655,13 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">tavelure : peu susceptible.
 Mildiou :  moyennement susceptible.
-Cette résistance aux maladies en fait une pomme réservée au marché bio[1].
+Cette résistance aux maladies en fait une pomme réservée au marché bio.
 </t>
         </is>
       </c>
@@ -668,10 +690,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, la pomme est cultivée en Allemagne et en Grande-Bretagne et testée dans quelques exploitations françaises principalement au nord de la Loire[1].
-Cette variété n’est guère adaptée aux conditions climatiques du sud de la France puisqu’elle a une légère sensibilité à la vitrescence et au scald (échaudure)[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, la pomme est cultivée en Allemagne et en Grande-Bretagne et testée dans quelques exploitations françaises principalement au nord de la Loire.
+Cette variété n’est guère adaptée aux conditions climatiques du sud de la France puisqu’elle a une légère sensibilité à la vitrescence et au scald (échaudure).
 </t>
         </is>
       </c>
